--- a/Strategy Analysis/AHTM.xlsx
+++ b/Strategy Analysis/AHTM.xlsx
@@ -81322,7 +81322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81372,7 +81372,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>38096</v>
+        <v>38086</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -81380,16 +81380,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600000</v>
+        <v>737100</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>40.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29.99999999627471</v>
       </c>
       <c r="G2" t="n">
-        <v>600000</v>
+        <v>737100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -81400,7 +81400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>38099</v>
+        <v>38096</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -81408,19 +81408,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600000</v>
+        <v>737100</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>26400000</v>
+        <v>36855030</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-3600000</v>
+        <v>6855029.999999996</v>
       </c>
     </row>
     <row r="4">
@@ -81428,7 +81428,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>38170</v>
+        <v>38097</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -81436,16 +81436,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>549427</v>
+        <v>767813</v>
       </c>
       <c r="E4" t="n">
-        <v>48.05</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>32.65000000223517</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>549427</v>
+        <v>767813</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -81456,7 +81456,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>38182</v>
+        <v>38100</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -81464,19 +81464,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>549427</v>
+        <v>767813</v>
       </c>
       <c r="E5" t="n">
-        <v>41.1</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>22581482.35</v>
+        <v>32248152</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-3818517.649999999</v>
+        <v>-4606878</v>
       </c>
     </row>
     <row r="6">
@@ -81484,7 +81484,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>38252</v>
+        <v>38170</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -81492,16 +81492,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>531328</v>
+        <v>671137</v>
       </c>
       <c r="E6" t="n">
-        <v>42.5</v>
+        <v>48.05</v>
       </c>
       <c r="F6" t="n">
-        <v>42.35000000149012</v>
+        <v>19.15000000223517</v>
       </c>
       <c r="G6" t="n">
-        <v>531328</v>
+        <v>671137</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -81512,307 +81512,307 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>38253</v>
+        <v>38182</v>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>671137</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27583749.85</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-4664402.149999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>38252</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.950000001490118</v>
-      </c>
-      <c r="G7" t="n">
-        <v>531329</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>38327</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>649029</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.35000000149012</v>
+      </c>
+      <c r="G8" t="n">
+        <v>649029</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>38257</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>531329</v>
-      </c>
-      <c r="E8" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27416578.35000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5950884.800000004</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>38328</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>649029</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24695570.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2888179.050000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>38258</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>556681</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39.10000000521541</v>
-      </c>
-      <c r="G9" t="n">
-        <v>556681</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>38362</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>650739</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>650739</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>38322</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>556681</v>
-      </c>
-      <c r="E10" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>34681265.40000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7264687.049999997</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>38365</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>650739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30422074</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5726503.199999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>38323</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>585832</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11.00000000745058</v>
-      </c>
-      <c r="G11" t="n">
-        <v>585832</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>38666</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>657774</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>657774</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>38341</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>585832</v>
-      </c>
-      <c r="E12" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30404691.80000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-4276573.599999998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>38761</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>657774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36835370.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6413296.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>38342</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>608093</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41.80000000819564</v>
-      </c>
-      <c r="G13" t="n">
-        <v>608093</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>38779</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>657774</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>657774</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>38428</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>608093</v>
-      </c>
-      <c r="E14" t="n">
-        <v>43</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26148040.80000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-4256651</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>38796</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>657774</v>
+      </c>
+      <c r="E15" t="n">
+        <v>69</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45386432.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8551062</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>38558</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>477154</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.600000008940697</v>
-      </c>
-      <c r="G15" t="n">
-        <v>477154</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>38859</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>737990</v>
+      </c>
+      <c r="E16" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>737990</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>38652</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>477154</v>
-      </c>
-      <c r="E16" t="n">
-        <v>48</v>
-      </c>
-      <c r="F16" t="n">
-        <v>22903393.60000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-3244647.199999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>38880</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
       <c r="D17" t="n">
-        <v>400408</v>
+        <v>737990</v>
       </c>
       <c r="E17" t="n">
-        <v>57.2</v>
+        <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>56.00000000745058</v>
+        <v>39851507.5</v>
       </c>
       <c r="G17" t="n">
-        <v>400408</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-5534925</v>
       </c>
     </row>
     <row r="18">
@@ -81820,7 +81820,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>38887</v>
+        <v>38770</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -81828,16 +81828,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>759076</v>
       </c>
       <c r="E18" t="n">
-        <v>54.6</v>
+        <v>52.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.400000007450579</v>
+        <v>17.5</v>
       </c>
       <c r="G18" t="n">
-        <v>400409</v>
+        <v>759076</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -81848,7 +81848,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>38937</v>
+        <v>38778</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -81856,19 +81856,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>400409</v>
+        <v>759076</v>
       </c>
       <c r="E19" t="n">
-        <v>48.5</v>
+        <v>45.15</v>
       </c>
       <c r="F19" t="n">
-        <v>19419837.90000001</v>
+        <v>34272298.9</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-2442494.900000002</v>
+        <v>-5579208.600000001</v>
       </c>
     </row>
     <row r="20">
@@ -81876,7 +81876,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>39080</v>
+        <v>38796</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -81884,16 +81884,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>373458</v>
+        <v>625406</v>
       </c>
       <c r="E20" t="n">
-        <v>52</v>
+        <v>54.8</v>
       </c>
       <c r="F20" t="n">
-        <v>21.90000000596046</v>
+        <v>50.10000000149012</v>
       </c>
       <c r="G20" t="n">
-        <v>373458</v>
+        <v>625406</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -81904,7 +81904,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>39122</v>
+        <v>38859</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -81912,19 +81912,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>373458</v>
+        <v>625406</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" t="n">
-        <v>16805631.90000001</v>
+        <v>30019538.1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-2614206</v>
+        <v>-4252760.799999997</v>
       </c>
     </row>
     <row r="22">
@@ -81932,7 +81932,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>39330</v>
+        <v>38880</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -81940,16 +81940,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>373458</v>
+        <v>524817</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>57.2</v>
       </c>
       <c r="F22" t="n">
-        <v>21.90000000596046</v>
+        <v>5.699999999254942</v>
       </c>
       <c r="G22" t="n">
-        <v>373458</v>
+        <v>524817</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -81960,7 +81960,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>39372</v>
+        <v>38932</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -81968,19 +81968,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>373458</v>
+        <v>524817</v>
       </c>
       <c r="E23" t="n">
-        <v>38.8</v>
+        <v>51</v>
       </c>
       <c r="F23" t="n">
-        <v>14490192.3</v>
+        <v>26765672.7</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-2315439.600000001</v>
+        <v>-3253865.400000002</v>
       </c>
     </row>
     <row r="24">
@@ -81988,7 +81988,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>39402</v>
+        <v>39080</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -81996,16 +81996,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>308301</v>
+        <v>514724</v>
       </c>
       <c r="E24" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>45.30000000447035</v>
+        <v>24.69999999925494</v>
       </c>
       <c r="G24" t="n">
-        <v>308301</v>
+        <v>514724</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -82016,1258 +82016,1622 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>39426</v>
+        <v>39122</v>
       </c>
       <c r="C25" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>514724</v>
+      </c>
+      <c r="E25" t="n">
+        <v>45</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23162604.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3603068</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>39330</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>44</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.300000004470348</v>
-      </c>
-      <c r="G25" t="n">
-        <v>308302</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>39463</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>514724</v>
+      </c>
+      <c r="E26" t="n">
+        <v>45</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24.69999999925494</v>
+      </c>
+      <c r="G26" t="n">
+        <v>514724</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>39372</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>308302</v>
-      </c>
-      <c r="E26" t="n">
-        <v>39</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12023779.3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-1541510</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>39797</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>514724</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19971315.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3191288.800000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>39402</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>279298</v>
-      </c>
-      <c r="E27" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.4000000059604645</v>
-      </c>
-      <c r="G27" t="n">
-        <v>279298</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>39885</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>424921</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.89999999850988</v>
+      </c>
+      <c r="G28" t="n">
+        <v>424921</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>39456</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>279298</v>
-      </c>
-      <c r="E28" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10311682.56000001</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-1712096.739999998</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>40140</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>424921</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17421789.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2549526</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>39797</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>466380</v>
-      </c>
-      <c r="E29" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>20.76000000722706</v>
-      </c>
-      <c r="G29" t="n">
-        <v>466380</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>40163</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>404687</v>
+      </c>
+      <c r="E30" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14.55000000074506</v>
+      </c>
+      <c r="G30" t="n">
+        <v>404687</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>39885</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>466380</v>
-      </c>
-      <c r="E30" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9266991.360000007</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-1044691.199999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>40196</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>404687</v>
+      </c>
+      <c r="E31" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14941058.59</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2480731.309999997</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>40140</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>487479</v>
-      </c>
-      <c r="E31" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="F31" t="n">
-        <v>15.57000000588596</v>
-      </c>
-      <c r="G31" t="n">
-        <v>487479</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>40217</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>675760</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.990000002086163</v>
+      </c>
+      <c r="G32" t="n">
+        <v>675760</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>40163</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>487479</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8287158.570000006</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-979832.790000001</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>40269</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>675760</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13427356.19</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1513702.399999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>40192</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>436166</v>
-      </c>
-      <c r="E33" t="n">
-        <v>19</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4.570000005885959</v>
-      </c>
-      <c r="G33" t="n">
-        <v>436166</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>40284</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>706331</v>
+      </c>
+      <c r="E34" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.880000002682209</v>
+      </c>
+      <c r="G34" t="n">
+        <v>706331</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>40217</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>436166</v>
-      </c>
-      <c r="E34" t="n">
-        <v>23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10031822.57000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1744664</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>40287</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>706331</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12007630.88</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1419725.310000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>40269</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>455991</v>
-      </c>
-      <c r="E35" t="n">
-        <v>22</v>
-      </c>
-      <c r="F35" t="n">
-        <v>20.57000000588596</v>
-      </c>
-      <c r="G35" t="n">
-        <v>455991</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>40310</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>631980</v>
+      </c>
+      <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.88000000268221</v>
+      </c>
+      <c r="G36" t="n">
+        <v>631980</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>40284</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>455991</v>
-      </c>
-      <c r="E36" t="n">
-        <v>19</v>
-      </c>
-      <c r="F36" t="n">
-        <v>8663849.570000006</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-1367973</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>40338</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>631980</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14535550.88</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2527920</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>40287</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>403344</v>
-      </c>
-      <c r="E37" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="F37" t="n">
-        <v>20.45000000484288</v>
-      </c>
-      <c r="G37" t="n">
-        <v>403344</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>40451</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>660706</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>18.88000000268221</v>
+      </c>
+      <c r="G38" t="n">
+        <v>660706</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>40310</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>403344</v>
-      </c>
-      <c r="E38" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>7643389.250000005</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-1020460.320000001</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>41197</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>660706</v>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12553432.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1982118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>40338</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>530054</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10.57000000495464</v>
-      </c>
-      <c r="G39" t="n">
-        <v>530054</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>41240</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>584424</v>
+      </c>
+      <c r="E40" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.360000003129244</v>
+      </c>
+      <c r="G40" t="n">
+        <v>584424</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>40451</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>530054</v>
-      </c>
-      <c r="E40" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9222950.170000006</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1579560.92</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>41241</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>584424</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11074840.16</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1478592.720000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>41197</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>501247</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5.370000006631017</v>
-      </c>
-      <c r="G41" t="n">
-        <v>501247</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>41442</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>768019</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.180000001564622</v>
+      </c>
+      <c r="G42" t="n">
+        <v>768019</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>41240</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>501247</v>
-      </c>
-      <c r="E42" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>11177813.47000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1954863.300000001</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>41443</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>768019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13363536.78</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2288696.619999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>41241</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>527255</v>
-      </c>
-      <c r="E43" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7.470000006258488</v>
-      </c>
-      <c r="G43" t="n">
-        <v>527255</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>41548</v>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>726279</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.180000001564622</v>
+      </c>
+      <c r="G44" t="n">
+        <v>726279</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>41442</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>527255</v>
-      </c>
-      <c r="E44" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="F44" t="n">
-        <v>9991489.720000006</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-1186323.75</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>41611</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>726279</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16196024.88</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2832488.100000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>41443</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>431597</v>
-      </c>
-      <c r="E45" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="F45" t="n">
-        <v>19.17000000737607</v>
-      </c>
-      <c r="G45" t="n">
-        <v>431597</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>41618</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>763963</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.280000003054738</v>
+      </c>
+      <c r="G46" t="n">
+        <v>763963</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>41548</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>431597</v>
-      </c>
-      <c r="E46" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="F46" t="n">
-        <v>12063155.32000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2071665.600000001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>41619</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>763963</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14477108.13</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1718916.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>41611</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>411150</v>
-      </c>
-      <c r="E47" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="F47" t="n">
-        <v>14.3200000077486</v>
-      </c>
-      <c r="G47" t="n">
-        <v>411150</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>41626</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>625361</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9800000041723251</v>
+      </c>
+      <c r="G48" t="n">
+        <v>625361</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>41618</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>411150</v>
-      </c>
-      <c r="E48" t="n">
-        <v>35.59</v>
-      </c>
-      <c r="F48" t="n">
-        <v>14632842.82000001</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2569687.500000002</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>41627</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>625361</v>
+      </c>
+      <c r="E49" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17478840.93</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3001732.800000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>41619</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>418081</v>
-      </c>
-      <c r="E49" t="n">
-        <v>35</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7.820000009611249</v>
-      </c>
-      <c r="G49" t="n">
-        <v>418081</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>41635</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>595734</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.370000004768372</v>
+      </c>
+      <c r="G50" t="n">
+        <v>595734</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>41626</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>418081</v>
-      </c>
-      <c r="E50" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>12626054.02000001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-2006788.800000001</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>41641</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>595734</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21202178.43000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3723337.500000004</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>41627</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>362817</v>
-      </c>
-      <c r="E51" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>22.42000000923872</v>
-      </c>
-      <c r="G51" t="n">
-        <v>362817</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>41793</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>605776</v>
+      </c>
+      <c r="E52" t="n">
+        <v>35</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18.43000000715256</v>
+      </c>
+      <c r="G52" t="n">
+        <v>605776</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>41635</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>362817</v>
-      </c>
-      <c r="E52" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="F52" t="n">
-        <v>10808340.85000001</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-1817713.17</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>42012</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>605776</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>18294453.63000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2907724.800000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>41662</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>397365</v>
-      </c>
-      <c r="E53" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>12.8500000089407</v>
-      </c>
-      <c r="G53" t="n">
-        <v>397365</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>42166</v>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>453394</v>
+      </c>
+      <c r="E54" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.730000004172325</v>
+      </c>
+      <c r="G54" t="n">
+        <v>453394</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>41740</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>397365</v>
-      </c>
-      <c r="E54" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="F54" t="n">
-        <v>9564588.40000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-1243752.449999999</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>42562</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>453394</v>
+      </c>
+      <c r="E55" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15936804.83</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2357648.800000003</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>42012</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>371873</v>
-      </c>
-      <c r="E55" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14.84000001102686</v>
-      </c>
-      <c r="G55" t="n">
-        <v>371873</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>42664</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>585911</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25.63000000454485</v>
+      </c>
+      <c r="G56" t="n">
+        <v>585911</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>42166</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>371873</v>
-      </c>
-      <c r="E56" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8482437.97000001</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-1082150.43</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>42710</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>585911</v>
+      </c>
+      <c r="E57" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14102903.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1833901.43</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>42215</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>367205</v>
-      </c>
-      <c r="E57" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.470000009983778</v>
-      </c>
-      <c r="G57" t="n">
-        <v>367205</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>42733</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>488666</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.640000004321337</v>
+      </c>
+      <c r="G58" t="n">
+        <v>488666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>42447</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>367205</v>
-      </c>
-      <c r="E58" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10303774.77000001</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1821336.799999999</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>42786</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>488666</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12338819.14</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-1764084.26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>42562</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>380213</v>
-      </c>
-      <c r="E59" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.470000008121133</v>
-      </c>
-      <c r="G59" t="n">
-        <v>380213</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>43167</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>479736</v>
+      </c>
+      <c r="E60" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.220000004395843</v>
+      </c>
+      <c r="G60" t="n">
+        <v>479736</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>42664</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>380213</v>
-      </c>
-      <c r="E60" t="n">
-        <v>33.07</v>
-      </c>
-      <c r="F60" t="n">
-        <v>12573646.38000001</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2269871.609999999</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>43181</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>479736</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10942787.38</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1396031.76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>42710</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>362352</v>
-      </c>
-      <c r="E61" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>31.98000000789762</v>
-      </c>
-      <c r="G61" t="n">
-        <v>362352</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>43794</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>473713</v>
+      </c>
+      <c r="E62" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>17.0800000037998</v>
+      </c>
+      <c r="G62" t="n">
+        <v>473713</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>42733</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>362352</v>
-      </c>
-      <c r="E62" t="n">
-        <v>43</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15581167.98000001</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3007521.6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>43831</v>
-      </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>473713</v>
+      </c>
+      <c r="E63" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13292403.86</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2349616.479999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>42842</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>345097</v>
-      </c>
-      <c r="E63" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="F63" t="n">
-        <v>38.4300000090152</v>
-      </c>
-      <c r="G63" t="n">
-        <v>345097</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>44385</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="n">
+        <v>487436</v>
+      </c>
+      <c r="E64" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="F64" t="n">
+        <v>24.14000000245869</v>
+      </c>
+      <c r="G64" t="n">
+        <v>487436</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>42978</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>345097</v>
-      </c>
-      <c r="E64" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>19359980.13000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3778812.15</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>44516</v>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>487436</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11942206.14</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-1350197.720000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>43003</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>307301</v>
-      </c>
-      <c r="E65" t="n">
-        <v>63</v>
-      </c>
-      <c r="F65" t="n">
-        <v>17.13000001013279</v>
-      </c>
-      <c r="G65" t="n">
-        <v>307301</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>44634</v>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>464677</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7.240000002086163</v>
+      </c>
+      <c r="G66" t="n">
+        <v>464677</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>43087</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>307301</v>
-      </c>
-      <c r="E66" t="n">
-        <v>53</v>
-      </c>
-      <c r="F66" t="n">
-        <v>16286970.13000001</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-3073010</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="n">
+        <v>464677</v>
+      </c>
+      <c r="E67" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14511869.95</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2569663.810000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>43147</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>301610</v>
-      </c>
-      <c r="E67" t="n">
-        <v>54</v>
-      </c>
-      <c r="F67" t="n">
-        <v>30.13000001013279</v>
-      </c>
-      <c r="G67" t="n">
-        <v>301610</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>45033</v>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="n">
+        <v>483728</v>
+      </c>
+      <c r="E68" t="n">
+        <v>30</v>
+      </c>
+      <c r="F68" t="n">
+        <v>29.95000000298023</v>
+      </c>
+      <c r="G68" t="n">
+        <v>483728</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>43213</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>301610</v>
-      </c>
-      <c r="E68" t="n">
-        <v>48</v>
-      </c>
-      <c r="F68" t="n">
-        <v>14477310.13000001</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-1809660</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="n">
+        <v>483728</v>
+      </c>
+      <c r="E69" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17622240.99</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3110371.039999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>43214</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>250602</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="D70" t="n">
+        <v>460712</v>
+      </c>
+      <c r="E70" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6.990000002086163</v>
+      </c>
+      <c r="G70" t="n">
+        <v>460712</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>43937</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>460712</v>
+      </c>
+      <c r="E71" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="F71" t="n">
+        <v>22284646.43</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4662405.439999998</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>43971</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>428633</v>
+      </c>
+      <c r="E72" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16.75999999791384</v>
+      </c>
+      <c r="G72" t="n">
+        <v>428633</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>43999</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>428633</v>
+      </c>
+      <c r="E73" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19074185.26</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-3210461.170000002</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>44516</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>302764</v>
+      </c>
+      <c r="E74" t="n">
+        <v>63</v>
+      </c>
+      <c r="F74" t="n">
+        <v>53.25999999791384</v>
+      </c>
+      <c r="G74" t="n">
+        <v>302764</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>302764</v>
+      </c>
+      <c r="E75" t="n">
+        <v>53</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16046545.26</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-3027640</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>320930</v>
+      </c>
+      <c r="E76" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" t="n">
+        <v>45.25999999791384</v>
+      </c>
+      <c r="G76" t="n">
+        <v>320930</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.089999997913836</v>
+      </c>
+      <c r="G77" t="n">
+        <v>320931</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>320931</v>
+      </c>
+      <c r="E78" t="n">
+        <v>54</v>
+      </c>
+      <c r="F78" t="n">
+        <v>17330275.09</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3154751.729999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>299313</v>
+      </c>
+      <c r="E79" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>52.38999999687076</v>
+      </c>
+      <c r="G79" t="n">
+        <v>299313</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>52</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3899999968707561</v>
+      </c>
+      <c r="G80" t="n">
+        <v>299314</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>299314</v>
+      </c>
+      <c r="E81" t="n">
+        <v>45.56</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13636746.23</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1927582.16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>236052</v>
+      </c>
+      <c r="E82" t="n">
         <v>57.77</v>
       </c>
-      <c r="F69" t="n">
-        <v>32.59000000916421</v>
-      </c>
-      <c r="G69" t="n">
-        <v>250602</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="F82" t="n">
+        <v>22.18999999575317</v>
+      </c>
+      <c r="G82" t="n">
+        <v>236052</v>
+      </c>
+      <c r="H82" t="n">
         <v>0</v>
       </c>
     </row>
